--- a/FASE_2_SPRINT_5/DISEÑO/SIGANEM_FASE_2_SPRINT_5_RQ_MANT_2016050410580724_BACKLOG_3943.xlsx
+++ b/FASE_2_SPRINT_5/DISEÑO/SIGANEM_FASE_2_SPRINT_5_RQ_MANT_2016050410580724_BACKLOG_3943.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="Caso 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullPrecision="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Escenario 1</t>
   </si>
@@ -49,13 +49,7 @@
     <t>Monto Grado Gravamen Calculado</t>
   </si>
   <si>
-    <t>001-01-02-5770550</t>
-  </si>
-  <si>
     <t>FID-BCR04122016009</t>
-  </si>
-  <si>
-    <t>REAL-143129</t>
   </si>
   <si>
     <t>521-02-02-5929599</t>
@@ -77,8 +71,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -265,7 +260,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,57 +268,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -636,10 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,74 +653,75 @@
     <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="9" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
@@ -732,77 +735,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="30">
+        <f>1073388888888.97*1</f>
+        <v>1073388888888.97</v>
+      </c>
+      <c r="D6" s="30">
+        <v>1300636</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13">
-        <v>7690374.9400000004</v>
-      </c>
-      <c r="D6" s="13">
-        <v>7000000</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" s="3">
-        <v>1232131</v>
+        <v>4081.35</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="19">
+        <v>3368256561.9200001</v>
+      </c>
+      <c r="I6" s="16" t="str">
+        <f>IFERROR(((IF(H6 &gt; 0, MontoGradoGravemenCalculado(C6,H6,D6),MontoGradoGravemenCalculado(C6,G6,D6)))), "NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="J6" s="13">
         <f>IFERROR(((((IF(H6 &gt; 0, H6,G6)) * $C$6)/$D$6)), "NULL")</f>
-        <v>1353649.9093138773</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="16"/>
+        <v>2779754803413320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" s="3">
-        <v>8201528.8099999996</v>
+        <v>1643.89</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="19">
-        <f t="shared" ref="I7:I14" si="0">IFERROR(((((IF(H7 &gt; 0, H7,G7)) * $C$6)/$D$6)), "NULL")</f>
-        <v>9010404.5185874328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13">
+      <c r="I7" s="11" t="str">
+        <f>IFERROR(((IF(H7 &gt; 0, MontoGradoGravemenCalculado(C6,H7,D6),MontoGradoGravemenCalculado(C6,G7,D6)))), "NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="J7" s="12" t="e">
+        <f>MontoGradoGravemenCalculado(C6,H6,D6)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="30">
         <v>69649481.510000005</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="30">
         <v>96298000</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="3">
         <v>18713994.870000001</v>
@@ -810,19 +823,19 @@
       <c r="H9" s="3">
         <v>19713994.870000001</v>
       </c>
-      <c r="I9" s="19">
-        <f>IFERROR(((((IF(H9 &gt; 0, H9,G9)) * $C$9)/$D$9)), "NULL")</f>
-        <v>14258546.60726391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="16"/>
+      <c r="I9" s="15" t="str">
+        <f>IFERROR(((IF(H9 &gt; 0, MontoGradoGravemenCalculado(C9,H9,D9),MontoGradoGravemenCalculado(C9,G9,D9)))), "NULL")</f>
+        <v>14.258.546,60726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3">
         <v>68349682.909999996</v>
@@ -830,36 +843,38 @@
       <c r="H10" s="3">
         <v>67349682.909999996</v>
       </c>
-      <c r="I10" s="19">
-        <f>IFERROR(((((IF(H10 &gt; 0, H10,G10)) * $C$9)/$D$9)), "NULL")</f>
-        <v>48712024.076765954</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5"/>
+      <c r="I10" s="5" t="str">
+        <f>IFERROR(((IF(H10 &gt; 0, MontoGradoGravemenCalculado(C9,H10,D9),MontoGradoGravemenCalculado(C9,G10,D9)))), "NULL")</f>
+        <v>48.712.024,07677</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="24"/>
       <c r="C12" s="3">
         <v>1073388888888.97</v>
       </c>
       <c r="D12" s="3">
         <v>1300636</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="3">
         <v>125300</v>
@@ -867,65 +882,70 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="19">
-        <f>IFERROR(((((IF(H12 &gt; 0, H12,G12)) * $C$12)/$D$12)), "NULL")</f>
-        <v>103407585041.30898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="I12" s="5" t="str">
+        <f>IFERROR(((IF(H12 &gt; 0, MontoGradoGravemenCalculado(C12,H12,D12),MontoGradoGravemenCalculado(C12,G12,D12)))), "NULL")</f>
+        <v>10.340.758.504.130,90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="19">
-        <f t="shared" si="0"/>
+      <c r="I13" s="5">
+        <f t="shared" ref="I13:I14" si="0">IFERROR(((((IF(H13 &gt; 0, H13,G13)) * $C$6)/$D$6)), "NULL")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="19">
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E4:E7"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
